--- a/RegExDrillMac.xlsx
+++ b/RegExDrillMac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{59BBA4CC-8606-4CFE-B81C-1200F3D1EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{909DE490-53C6-43F1-B528-95B4B1AF6DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17310" yWindow="2325" windowWidth="21600" windowHeight="11235" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-13095" yWindow="2775" windowWidth="18465" windowHeight="11235" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>FROM:</t>
   </si>
@@ -145,6 +145,66 @@
   </si>
   <si>
     <t>ProductDescription.txt</t>
+  </si>
+  <si>
+    <t>Identify files of specified type</t>
+  </si>
+  <si>
+    <t>Email Addresses</t>
+  </si>
+  <si>
+    <t>john.doe@exmaple.com</t>
+  </si>
+  <si>
+    <t>contact@service.c_om</t>
+  </si>
+  <si>
+    <t>mike123@gmail.com</t>
+  </si>
+  <si>
+    <t>info@business.org</t>
+  </si>
+  <si>
+    <t>([a-z0-9_\.-]+)@([\da-z\.-]+)\.([a-z]{2,5})</t>
+  </si>
+  <si>
+    <t>admin @company.com</t>
+  </si>
+  <si>
+    <t>123-45-6789</t>
+  </si>
+  <si>
+    <t>555-55-5555</t>
+  </si>
+  <si>
+    <t>123-456-789</t>
+  </si>
+  <si>
+    <t>12-3456-7890</t>
+  </si>
+  <si>
+    <t>987-65-4321</t>
+  </si>
+  <si>
+    <t>Social Security Numbers</t>
+  </si>
+  <si>
+    <t>Extract Dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On 2024-12-25,we plan to host a big family gathering for Christmas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project deadline is approaching fast, it's set for 2025-03-15. </t>
+  </si>
+  <si>
+    <t>We celebrated our anniversary on 2023-06-10 with a lovely dinner.</t>
+  </si>
+  <si>
+    <t>The new policy will be effective 2024-01-01. Thanks!</t>
+  </si>
+  <si>
+    <t>Our next meeting is scheduled for 2024-12-30.</t>
   </si>
 </sst>
 </file>
@@ -329,7 +389,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -339,6 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -643,7 +704,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1581148</xdr:colOff>
+      <xdr:colOff>1584958</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>149352</xdr:rowOff>
     </xdr:to>
@@ -1385,24 +1446,31 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="B7:C12"/>
+  <dimension ref="A5:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1411,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1420,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1429,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1438,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -1447,9 +1515,169 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="b">
+        <f>_xlfn.REGEXTEST(B16,"([a-z0-9_\.-]+)@([\da-z\.-]+)\.([a-z]{2,5})")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" ref="C17:C20" si="1">_xlfn.REGEXTEST(B17,"([a-z0-9_\.-]+)@([\da-z\.-]+)\.([a-z]{2,5})")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="b">
+        <f>_xlfn.REGEXTEST(B24,"^\d{3}-\d{2}-\d{4}$")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="b">
+        <f t="shared" ref="C25:C28" si="2">_xlfn.REGEXTEST(B25,"^\d{3}-\d{2}-\d{4}$")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="str" cm="1">
+        <f t="array" ref="C32">_xlfn.REGEXEXTRACT(B32,"\b\d{4}-\d{2}-\d{2}\b")</f>
+        <v>2024-12-25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="str" cm="1">
+        <f t="array" ref="C33">_xlfn.REGEXEXTRACT(B33,"\b\d{4}-\d{2}-\d{2}\b")</f>
+        <v>2025-03-15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="str" cm="1">
+        <f t="array" ref="C34">_xlfn.REGEXEXTRACT(B34,"\b\d{4}-\d{2}-\d{2}\b")</f>
+        <v>2023-06-10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="str" cm="1">
+        <f t="array" ref="C35">_xlfn.REGEXEXTRACT(B35,"\b\d{4}-\d{2}-\d{2}\b")</f>
+        <v>2024-01-01</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="str" cm="1">
+        <f t="array" ref="C36">_xlfn.REGEXEXTRACT(B36,"\b\d{4}-\d{2}-\d{2}\b")</f>
+        <v>2024-12-30</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{9531A9B5-446E-4124-9454-DE05E2FF4F4A}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{75140EBF-5731-42F3-B993-3B9C82B1E62C}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{FA062853-4991-4B68-BB5F-5FAEBB876EAE}"/>
+    <hyperlink ref="B19" r:id="rId4" display="admin@company.com" xr:uid="{FC74BAE9-3DC5-4E15-AD17-8C2B089469A1}"/>
+    <hyperlink ref="B20" r:id="rId5" xr:uid="{62D403D7-D5EB-428E-86D4-433BA090E704}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/RegExDrillMac.xlsx
+++ b/RegExDrillMac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{909DE490-53C6-43F1-B528-95B4B1AF6DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{E14D9B51-3F95-4824-AA2C-45FBA169CAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13095" yWindow="2775" windowWidth="18465" windowHeight="11235" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-16800" yWindow="2040" windowWidth="18465" windowHeight="13545" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>FROM:</t>
   </si>
@@ -205,6 +205,75 @@
   </si>
   <si>
     <t>Our next meeting is scheduled for 2024-12-30.</t>
+  </si>
+  <si>
+    <t>Extract Text Between Parenthesis</t>
+  </si>
+  <si>
+    <t>Project Timeline (Definitely the Last Version).xtsx</t>
+  </si>
+  <si>
+    <t>Client List (For Real This Time).xlsx</t>
+  </si>
+  <si>
+    <t>Budget Plan (Draft v3.0 FINAL FINAL).xlsx</t>
+  </si>
+  <si>
+    <t>Sales Data (Use This One PLEASE).xtsx</t>
+  </si>
+  <si>
+    <t>Expense Report (Seriously Final v2).xlsx</t>
+  </si>
+  <si>
+    <t>I got an update from john.doe@example.com about the conference. Meanwhile, sarah.connor@cybermail.net sent the project updates, and tech.support@helpdesk.org helped resolve my software issue.</t>
+  </si>
+  <si>
+    <t>Remove All Alpha, Numbers, or Other Characters</t>
+  </si>
+  <si>
+    <t>Remove numeric</t>
+  </si>
+  <si>
+    <t>\d</t>
+  </si>
+  <si>
+    <t>Meet me @ 5pm for coffee &amp; chat about 50% off deals!</t>
+  </si>
+  <si>
+    <t>Remove alpha</t>
+  </si>
+  <si>
+    <t>[a-zA-Z]</t>
+  </si>
+  <si>
+    <t>Remove other</t>
+  </si>
+  <si>
+    <t>[^a-zA-Z0-9\s]</t>
+  </si>
+  <si>
+    <t>Format CC Number</t>
+  </si>
+  <si>
+    <t>5500000000000004</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>6011000000000004</t>
+  </si>
+  <si>
+    <t>2221000000000009</t>
+  </si>
+  <si>
+    <t>3530111333300000</t>
+  </si>
+  <si>
+    <t>(\d{4})(?=\d{4})</t>
+  </si>
+  <si>
+    <t>(\d{4})(?=\d)</t>
   </si>
 </sst>
 </file>
@@ -389,7 +458,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -400,6 +469,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -704,7 +778,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1584958</xdr:colOff>
+      <xdr:colOff>1165858</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>149352</xdr:rowOff>
     </xdr:to>
@@ -1446,15 +1520,16 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A5:D36"/>
+  <dimension ref="A5:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
@@ -1632,7 +1707,7 @@
         <v>2024-12-25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>43</v>
       </c>
@@ -1641,7 +1716,7 @@
         <v>2025-03-15</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>44</v>
       </c>
@@ -1650,7 +1725,7 @@
         <v>2023-06-10</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>45</v>
       </c>
@@ -1659,13 +1734,241 @@
         <v>2024-01-01</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>46</v>
       </c>
       <c r="C36" t="str" cm="1">
         <f t="array" ref="C36">_xlfn.REGEXEXTRACT(B36,"\b\d{4}-\d{2}-\d{2}\b")</f>
         <v>2024-12-30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="str" cm="1">
+        <f t="array" ref="C40">_xlfn.REGEXEXTRACT(B40,"\(([^)]+)\)")</f>
+        <v>(Draft v3.0 FINAL FINAL)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="str" cm="1">
+        <f t="array" ref="C41">_xlfn.REGEXEXTRACT(B41,"\(([^)]+)\)")</f>
+        <v>(Use This One PLEASE)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="str" cm="1">
+        <f t="array" ref="C42">_xlfn.REGEXEXTRACT(B42,"\(([^)]+)\)")</f>
+        <v>(Definitely the Last Version)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="str" cm="1">
+        <f t="array" ref="C43">_xlfn.REGEXEXTRACT(B43,"\(([^)]+)\)")</f>
+        <v>(Seriously Final v2)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="str" cm="1">
+        <f t="array" ref="C44">_xlfn.REGEXEXTRACT(B44,"\(([^)]+)\)")</f>
+        <v>(For Real This Time)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="str" cm="1">
+        <f t="array" ref="C46:E46">_xlfn.REGEXEXTRACT(B46,"([a-z0-9_\.-]+)@([\da-z\.-]+)\.([a-z]{2,5})",1)</f>
+        <v>john.doe@example.com</v>
+      </c>
+      <c r="D46" t="str">
+        <v>sarah.connor@cybermail.net</v>
+      </c>
+      <c r="E46" t="str">
+        <v>tech.support@helpdesk.org</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="str">
+        <f>_xlfn.REGEXREPLACE(B51,B50,"")</f>
+        <v>Meet me @ pm for coffee &amp; chat about % off deals!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="str">
+        <f>_xlfn.REGEXREPLACE(B54,B53,"")</f>
+        <v xml:space="preserve">  @ 5   &amp;   50%  !</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="str">
+        <f>_xlfn.REGEXREPLACE(B58,B57,"")</f>
+        <v>Meet me  5pm for coffee  chat about 50 off deals</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="str">
+        <f>_xlfn.REGEXREPLACE(B63,$B$62,"$1-")</f>
+        <v>4111-1111-1111-1111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" ref="C64:C68" si="3">_xlfn.REGEXREPLACE(B64,$B$62,"$1-")</f>
+        <v>5500-0000-0000-0004</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="3"/>
+        <v>6011-0000-0000-0004</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="3"/>
+        <v>2221-0000-0000-0009</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="3"/>
+        <v>3530-1113-3330-0000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="str">
+        <f>_xlfn.REGEXREPLACE(B69,$B$68,"****-")</f>
+        <v>****-****-****-1111</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" ref="C70:C73" si="4">_xlfn.REGEXREPLACE(B70,$B$68,"****-")</f>
+        <v>****-****-****-0004</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="4"/>
+        <v>****-****-****-0004</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="4"/>
+        <v>****-****-****-0009</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="4"/>
+        <v>****-****-****-0000</v>
       </c>
     </row>
   </sheetData>
@@ -1677,7 +1980,8 @@
     <hyperlink ref="B20" r:id="rId5" xr:uid="{62D403D7-D5EB-428E-86D4-433BA090E704}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/RegExDrillMac.xlsx
+++ b/RegExDrillMac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{E14D9B51-3F95-4824-AA2C-45FBA169CAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{18566503-C0B0-4428-8334-ABECA278829F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16800" yWindow="2040" windowWidth="18465" windowHeight="13545" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-23445" yWindow="3225" windowWidth="18465" windowHeight="13545" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>FROM:</t>
   </si>
@@ -274,6 +274,27 @@
   </si>
   <si>
     <t>(\d{4})(?=\d)</t>
+  </si>
+  <si>
+    <t>Split Text by Capitals</t>
+  </si>
+  <si>
+    <t>HelloThisIsSomeText</t>
+  </si>
+  <si>
+    <t>John W. MacDougall</t>
+  </si>
+  <si>
+    <t>ILikePizza</t>
+  </si>
+  <si>
+    <t>JohnDeLaCruz</t>
+  </si>
+  <si>
+    <t>BlahBlahBlah</t>
+  </si>
+  <si>
+    <t>[A-Z][a-z]*</t>
   </si>
 </sst>
 </file>
@@ -796,7 +817,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1" y="0"/>
-          <a:ext cx="2190747" cy="492252"/>
+          <a:ext cx="2194557" cy="492252"/>
           <a:chOff x="3162303" y="274265"/>
           <a:chExt cx="2198368" cy="489383"/>
         </a:xfrm>
@@ -1520,10 +1541,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A5:E73"/>
+  <dimension ref="A5:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1894,7 +1915,7 @@
         <v>5500-0000-0000-0004</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>65</v>
       </c>
@@ -1903,7 +1924,7 @@
         <v>6011-0000-0000-0004</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>66</v>
       </c>
@@ -1912,7 +1933,7 @@
         <v>2221-0000-0000-0009</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>67</v>
       </c>
@@ -1921,12 +1942,12 @@
         <v>3530-1113-3330-0000</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>64</v>
       </c>
@@ -1935,7 +1956,7 @@
         <v>****-****-****-1111</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>63</v>
       </c>
@@ -1944,7 +1965,7 @@
         <v>****-****-****-0004</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>65</v>
       </c>
@@ -1953,7 +1974,7 @@
         <v>****-****-****-0004</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>66</v>
       </c>
@@ -1962,13 +1983,110 @@
         <v>****-****-****-0009</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="4"/>
         <v>****-****-****-0000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" t="str" cm="1">
+        <f t="array" ref="C77:G77">_xlfn.REGEXEXTRACT(B77,$B$76,1)</f>
+        <v>Hello</v>
+      </c>
+      <c r="D77" t="str">
+        <v>This</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Is</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Some</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Text</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" t="str" cm="1">
+        <f t="array" ref="C78:F78">_xlfn.REGEXEXTRACT(B78,$B$76,1)</f>
+        <v>John</v>
+      </c>
+      <c r="D78" t="str">
+        <v>W</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Mac</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Dougall</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" t="str" cm="1">
+        <f t="array" ref="C79:E79">_xlfn.REGEXEXTRACT(B79,$B$76,1)</f>
+        <v>I</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Like</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Pizza</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" t="str" cm="1">
+        <f t="array" ref="C80:F80">_xlfn.REGEXEXTRACT(B80,$B$76,1)</f>
+        <v>John</v>
+      </c>
+      <c r="D80" t="str">
+        <v>De</v>
+      </c>
+      <c r="E80" t="str">
+        <v>La</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Cruz</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" t="str" cm="1">
+        <f t="array" ref="C81:E81">_xlfn.REGEXEXTRACT(B81,$B$76,1)</f>
+        <v>Blah</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Blah</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Blah</v>
       </c>
     </row>
   </sheetData>
